--- a/Datasets/Temperature.xlsx
+++ b/Datasets/Temperature.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robertopopa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Room 1</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Room 12</t>
-  </si>
-  <si>
-    <t>Temperature (°C)</t>
   </si>
   <si>
     <t>Room 13</t>
@@ -436,9 +433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -446,9 +441,6 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -600,195 +592,195 @@
       </c>
       <c r="B2" s="2">
         <f ca="1">RAND()*(25-15)+15</f>
-        <v>15.077266000179462</v>
+        <v>23.808234792553641</v>
       </c>
       <c r="C2" s="2">
         <f t="shared" ref="C2:AW7" ca="1" si="0">RAND()*(25-15)+15</f>
-        <v>20.036655447440037</v>
+        <v>21.925750769197755</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.275317901081493</v>
+        <v>16.229318649547409</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.833482826452091</v>
+        <v>20.429753811088325</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.38963980889946</v>
+        <v>16.208428302076069</v>
       </c>
       <c r="G2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.651386931118054</v>
+        <v>24.235338574878778</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.953913864834764</v>
+        <v>16.249536449527664</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22.394097870371461</v>
+        <v>17.728270047675416</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.913526416944769</v>
+        <v>17.088215854641692</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22.581742370936311</v>
+        <v>24.181311466597151</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.815407415188641</v>
+        <v>18.088104166841539</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.599008991923787</v>
+        <v>15.5711943691717</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.144479034046382</v>
+        <v>20.531869283171417</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22.970982962420106</v>
+        <v>22.885876248066022</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.694452716912838</v>
+        <v>18.079774712181703</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19.64522229605144</v>
+        <v>19.216796620296748</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.280996836376676</v>
+        <v>16.434224619065347</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.439217663969842</v>
+        <v>24.508144547668614</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.542988492355439</v>
+        <v>22.664018635822568</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.318910362233064</v>
+        <v>16.318372948434387</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.905794768431903</v>
+        <v>23.109183821672396</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.04610985659161</v>
+        <v>18.688687971526697</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.213621833691329</v>
+        <v>19.575448323117641</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.816699205280869</v>
+        <v>22.856584894567931</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.520482138312854</v>
+        <v>22.482698557666478</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.402805236152151</v>
+        <v>17.520316812875659</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22.565820144732463</v>
+        <v>24.216517236819811</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.033066684542199</v>
+        <v>17.53719458688683</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.352758120698052</v>
+        <v>17.400694450699795</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19.177878994047525</v>
+        <v>24.452592524196021</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22.931407693138421</v>
+        <v>15.367758467540998</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.823435620290425</v>
+        <v>22.381721020227474</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.726753032623552</v>
+        <v>24.877852021471195</v>
       </c>
       <c r="AI2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19.590469537627889</v>
+        <v>21.809641827312234</v>
       </c>
       <c r="AJ2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.552348182262484</v>
+        <v>24.078200892309308</v>
       </c>
       <c r="AK2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.232453468152844</v>
+        <v>21.153202504038024</v>
       </c>
       <c r="AL2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22.783712547692545</v>
+        <v>18.981179777706245</v>
       </c>
       <c r="AM2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.410032928326693</v>
+        <v>19.880671685598649</v>
       </c>
       <c r="AN2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.50714841311375</v>
+        <v>23.875771164114354</v>
       </c>
       <c r="AO2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19.031167305823249</v>
+        <v>19.435510565888837</v>
       </c>
       <c r="AP2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.146193380934545</v>
+        <v>19.859357253465848</v>
       </c>
       <c r="AQ2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.863929424540572</v>
+        <v>20.797237684439871</v>
       </c>
       <c r="AR2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.891401966284196</v>
+        <v>16.013878433257393</v>
       </c>
       <c r="AS2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.215956260969964</v>
+        <v>16.420155313527061</v>
       </c>
       <c r="AT2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.225051775924047</v>
+        <v>24.079062860280256</v>
       </c>
       <c r="AU2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.105078472453492</v>
+        <v>24.409526040656289</v>
       </c>
       <c r="AV2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.852469043078798</v>
+        <v>24.341816762256691</v>
       </c>
       <c r="AW2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.637598219313597</v>
+        <v>18.36308312488292</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
@@ -797,195 +789,195 @@
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:Q18" ca="1" si="1">RAND()*(25-15)+15</f>
-        <v>17.149609123790217</v>
+        <v>17.036537130317416</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>23.632311155466144</v>
+        <v>15.394668988540433</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>23.02546969877897</v>
+        <v>22.208544243696782</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>23.186237927064646</v>
+        <v>17.602980404243723</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>22.480164543442001</v>
+        <v>16.615244275391063</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.615833857144871</v>
+        <v>23.464946206132566</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.10093762331697</v>
+        <v>22.830530420045818</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>23.347074782046811</v>
+        <v>15.377044094606093</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>22.100211343835582</v>
+        <v>19.252647967847526</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>22.133914635357868</v>
+        <v>15.151761391569787</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>15.551138200358709</v>
+        <v>16.275718212237919</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>21.192304127274241</v>
+        <v>21.569374222379999</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>15.300093076287901</v>
+        <v>20.419339145748392</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.895469498645113</v>
+        <v>18.707855797233165</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>23.007770220544899</v>
+        <v>17.796156356418173</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>20.967912412264063</v>
+        <v>22.709326335623274</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.361684469437524</v>
+        <v>20.744868627355949</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.469396885331498</v>
+        <v>15.355572737156781</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19.661139739561243</v>
+        <v>21.635344529335029</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.274589654839385</v>
+        <v>18.570851306215435</v>
       </c>
       <c r="V3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.270862704240763</v>
+        <v>23.579602550732474</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22.92562331719666</v>
+        <v>18.050936091675677</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19.660949235829854</v>
+        <v>22.963085519331873</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.463607885152676</v>
+        <v>21.335135640080914</v>
       </c>
       <c r="Z3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19.28440907446258</v>
+        <v>22.230798736762594</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.653284049645407</v>
+        <v>18.137918528853561</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.283395365775181</v>
+        <v>24.013131289408928</v>
       </c>
       <c r="AC3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.853068302561503</v>
+        <v>20.958492234937456</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22.362310179480932</v>
+        <v>16.646131084258506</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.321892228378253</v>
+        <v>22.086713528345342</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22.566410981369664</v>
+        <v>15.184829504822664</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22.60562174502607</v>
+        <v>21.664047519523915</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.705912110555865</v>
+        <v>23.952878853452738</v>
       </c>
       <c r="AI3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.255374715562041</v>
+        <v>16.368803220156458</v>
       </c>
       <c r="AJ3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.115003516389439</v>
+        <v>23.656088474579143</v>
       </c>
       <c r="AK3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.610714197438295</v>
+        <v>15.515970993813488</v>
       </c>
       <c r="AL3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.525212140586298</v>
+        <v>16.300629677624215</v>
       </c>
       <c r="AM3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.308384287926895</v>
+        <v>22.589225589757977</v>
       </c>
       <c r="AN3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.926231931335252</v>
+        <v>15.214868624002669</v>
       </c>
       <c r="AO3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.638575804050721</v>
+        <v>22.535088958302225</v>
       </c>
       <c r="AP3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.252795027879728</v>
+        <v>19.188594524014089</v>
       </c>
       <c r="AQ3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.42776082862332</v>
+        <v>24.274523772059403</v>
       </c>
       <c r="AR3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.508838623996144</v>
+        <v>18.908312590788384</v>
       </c>
       <c r="AS3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19.118020251013363</v>
+        <v>16.873468461032282</v>
       </c>
       <c r="AT3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.964321136946126</v>
+        <v>16.881973106970435</v>
       </c>
       <c r="AU3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.49196408791633</v>
+        <v>23.22072350140467</v>
       </c>
       <c r="AV3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.762416262006834</v>
+        <v>19.176982589062256</v>
       </c>
       <c r="AW3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.846067513911603</v>
+        <v>16.703839575035794</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
@@ -994,195 +986,195 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>18.75266832444045</v>
+        <v>19.49663452941391</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.30200306461639</v>
+        <v>19.949105474019994</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.348569949878463</v>
+        <v>20.607834052524179</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.117212914852452</v>
+        <v>19.136436101333189</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.849856169011517</v>
+        <v>23.260862296886742</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.777391763561553</v>
+        <v>17.545841078094899</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.139794059297913</v>
+        <v>21.598615336591379</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22.626013366221272</v>
+        <v>22.258971993850849</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.615513683179564</v>
+        <v>21.217142618392387</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.991609681091067</v>
+        <v>19.912948824480559</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.943360135739306</v>
+        <v>18.823488592968026</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.284246530926247</v>
+        <v>18.659351256262205</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.590641795885386</v>
+        <v>24.196443716180717</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.608956425226836</v>
+        <v>16.237317201689841</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.139278611207562</v>
+        <v>17.029998697916454</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.006610641594797</v>
+        <v>21.691963649810145</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19.914938142477659</v>
+        <v>17.793275507824635</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.887460542975091</v>
+        <v>16.274268561596237</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.973023045895729</v>
+        <v>20.076827223862217</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19.797973164364929</v>
+        <v>22.248044669633714</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.900680892313414</v>
+        <v>20.358309156035311</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.120968868245306</v>
+        <v>20.075262184955506</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.828764924122957</v>
+        <v>16.889855899289806</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22.950277246877231</v>
+        <v>16.254556195369869</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.241355639133683</v>
+        <v>19.717812766296085</v>
       </c>
       <c r="AA4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.743541557723905</v>
+        <v>21.363063962818888</v>
       </c>
       <c r="AB4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.667448780207884</v>
+        <v>16.997322238859645</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.116812844928969</v>
+        <v>24.742036991876997</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.007217132899376</v>
+        <v>19.374254570711241</v>
       </c>
       <c r="AE4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.858982405133641</v>
+        <v>23.351621535547174</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.307522550210944</v>
+        <v>23.089732981603625</v>
       </c>
       <c r="AG4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.258453782206018</v>
+        <v>24.448511747455012</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.053442154392297</v>
+        <v>22.585415151870713</v>
       </c>
       <c r="AI4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.324073696605801</v>
+        <v>24.52099302618122</v>
       </c>
       <c r="AJ4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.737427672080916</v>
+        <v>16.259871838268907</v>
       </c>
       <c r="AK4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.317607357337408</v>
+        <v>21.303227179653582</v>
       </c>
       <c r="AL4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.954582964002588</v>
+        <v>16.260819999250611</v>
       </c>
       <c r="AM4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22.404498901719506</v>
+        <v>15.360762812709906</v>
       </c>
       <c r="AN4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.253585313670365</v>
+        <v>16.702535070565659</v>
       </c>
       <c r="AO4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.281908716796575</v>
+        <v>19.239446032402345</v>
       </c>
       <c r="AP4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.213022260568472</v>
+        <v>20.072242023235617</v>
       </c>
       <c r="AQ4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19.418568583102616</v>
+        <v>17.32263205651369</v>
       </c>
       <c r="AR4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.564420041442141</v>
+        <v>16.461223583134089</v>
       </c>
       <c r="AS4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.608859479166664</v>
+        <v>16.436422672874823</v>
       </c>
       <c r="AT4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.513419797767419</v>
+        <v>22.660776263798081</v>
       </c>
       <c r="AU4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.988102785829952</v>
+        <v>20.207208458337433</v>
       </c>
       <c r="AV4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.750304583813527</v>
+        <v>16.476027981368951</v>
       </c>
       <c r="AW4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22.48527292941743</v>
+        <v>23.820367650266899</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
@@ -1191,195 +1183,195 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>15.503764583478553</v>
+        <v>15.709327106842084</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.051560083386917</v>
+        <v>21.390991309887582</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.844836252482708</v>
+        <v>24.272338678666305</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.588504688547175</v>
+        <v>21.816721627446203</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.930314247466413</v>
+        <v>18.353839115327499</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.291381282111217</v>
+        <v>22.782322175771146</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.848876675470034</v>
+        <v>22.529975381327652</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22.676968375380632</v>
+        <v>20.616936010751616</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.309000485023912</v>
+        <v>15.402790195825721</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19.52680399461121</v>
+        <v>15.663141424084992</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.439532011874071</v>
+        <v>19.065282991570211</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.399689479069046</v>
+        <v>18.977131931500534</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.599840849519829</v>
+        <v>24.718653370920666</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.031171205369546</v>
+        <v>19.540681291352886</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22.502778180018726</v>
+        <v>19.105459316206243</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.245331140466764</v>
+        <v>16.422513032070633</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.894039303928725</v>
+        <v>15.374815404908469</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.192078953896875</v>
+        <v>22.289478712292386</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.490173214198261</v>
+        <v>18.243275718797161</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.413347660183618</v>
+        <v>23.565423864103739</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.302279979905915</v>
+        <v>15.231293579221566</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.893165716644955</v>
+        <v>23.588927686144963</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.162845143239224</v>
+        <v>24.710829896</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.941063533749041</v>
+        <v>21.420836806479084</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.141865650298918</v>
+        <v>15.51141933158196</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.389337565285373</v>
+        <v>16.024965519970149</v>
       </c>
       <c r="AB5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.301627122595306</v>
+        <v>24.061501594342822</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19.035098395869504</v>
+        <v>23.488500093633341</v>
       </c>
       <c r="AD5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.549319270573797</v>
+        <v>22.579063395507916</v>
       </c>
       <c r="AE5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.866010626063709</v>
+        <v>17.017315179775434</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.255535193722938</v>
+        <v>16.326269359403021</v>
       </c>
       <c r="AG5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.100998878975581</v>
+        <v>19.087270688433534</v>
       </c>
       <c r="AH5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.423645746839497</v>
+        <v>17.503994983861183</v>
       </c>
       <c r="AI5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.567091668133418</v>
+        <v>24.961104139558287</v>
       </c>
       <c r="AJ5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.512814951093299</v>
+        <v>24.409927586017652</v>
       </c>
       <c r="AK5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.05158098903933</v>
+        <v>18.859085485026416</v>
       </c>
       <c r="AL5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.837647082187864</v>
+        <v>15.380374871214476</v>
       </c>
       <c r="AM5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.996482940074641</v>
+        <v>15.304441318647283</v>
       </c>
       <c r="AN5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.45002814380679</v>
+        <v>23.45081895038658</v>
       </c>
       <c r="AO5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.300561577909992</v>
+        <v>17.985650128976541</v>
       </c>
       <c r="AP5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.196292231309201</v>
+        <v>17.319472262581726</v>
       </c>
       <c r="AQ5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.924902718774057</v>
+        <v>20.710322731558577</v>
       </c>
       <c r="AR5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19.268376990211266</v>
+        <v>21.507360696897582</v>
       </c>
       <c r="AS5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.842085001395919</v>
+        <v>23.328973041684499</v>
       </c>
       <c r="AT5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22.824015974928102</v>
+        <v>20.910877219623725</v>
       </c>
       <c r="AU5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.88162252464894</v>
+        <v>17.215512555160238</v>
       </c>
       <c r="AV5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.575768721339927</v>
+        <v>20.559683340046504</v>
       </c>
       <c r="AW5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.611989654009532</v>
+        <v>15.922819770848712</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
@@ -1388,195 +1380,195 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>24.269370892515632</v>
+        <v>18.917338561325117</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.563302659378618</v>
+        <v>24.952915225037493</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.235288622469703</v>
+        <v>16.545756147062175</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.415223929161527</v>
+        <v>17.515488762036846</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.801343892277917</v>
+        <v>21.245110474646751</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.656917269870057</v>
+        <v>18.922397660262213</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.33355325144116</v>
+        <v>15.67593611917424</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.205850173644855</v>
+        <v>20.855778659718531</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22.177464394708537</v>
+        <v>19.940034779568254</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19.801264033669284</v>
+        <v>21.33501445973922</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.005897938569504</v>
+        <v>21.822273190094222</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22.698757117413468</v>
+        <v>23.420501113725017</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22.908846101647704</v>
+        <v>22.206127783840635</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19.586492317782021</v>
+        <v>18.188942863641021</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.758631431760939</v>
+        <v>15.465456830898152</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.235866199198497</v>
+        <v>19.922107784887253</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.576258243144952</v>
+        <v>15.338121016640709</v>
       </c>
       <c r="S6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22.517479129135619</v>
+        <v>17.728919642048425</v>
       </c>
       <c r="T6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.198608327072133</v>
+        <v>18.472076432670072</v>
       </c>
       <c r="U6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.618734745055136</v>
+        <v>15.028304866792057</v>
       </c>
       <c r="V6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.201714783670674</v>
+        <v>19.762803125506984</v>
       </c>
       <c r="W6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.577554949170789</v>
+        <v>20.20401015461211</v>
       </c>
       <c r="X6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19.52474111715248</v>
+        <v>22.092058677002392</v>
       </c>
       <c r="Y6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19.322714680414922</v>
+        <v>22.662768679530352</v>
       </c>
       <c r="Z6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.731979738000831</v>
+        <v>22.260644009559545</v>
       </c>
       <c r="AA6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.326055913269354</v>
+        <v>18.576547222613012</v>
       </c>
       <c r="AB6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.658246288306682</v>
+        <v>18.52998419431168</v>
       </c>
       <c r="AC6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.100805398670655</v>
+        <v>18.405687509321503</v>
       </c>
       <c r="AD6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.489185230990127</v>
+        <v>16.52049032995842</v>
       </c>
       <c r="AE6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.352477944030923</v>
+        <v>15.72291533137281</v>
       </c>
       <c r="AF6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.845300017393832</v>
+        <v>24.790094104783812</v>
       </c>
       <c r="AG6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.89533364225333</v>
+        <v>21.287735869208497</v>
       </c>
       <c r="AH6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.949854850916942</v>
+        <v>19.442792344911439</v>
       </c>
       <c r="AI6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.657873288561703</v>
+        <v>24.046229305291952</v>
       </c>
       <c r="AJ6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.254038613155632</v>
+        <v>21.648138004697955</v>
       </c>
       <c r="AK6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.812682314219664</v>
+        <v>20.782873438218559</v>
       </c>
       <c r="AL6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.219562448822108</v>
+        <v>23.061151478254757</v>
       </c>
       <c r="AM6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.107752603493225</v>
+        <v>15.382218518314879</v>
       </c>
       <c r="AN6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.655615151790606</v>
+        <v>16.91221896253359</v>
       </c>
       <c r="AO6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.05892110378905</v>
+        <v>19.136401608076277</v>
       </c>
       <c r="AP6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22.711645260748838</v>
+        <v>16.056966754118701</v>
       </c>
       <c r="AQ6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.57977629867079</v>
+        <v>16.067796178418885</v>
       </c>
       <c r="AR6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.80450010438598</v>
+        <v>21.246658248415294</v>
       </c>
       <c r="AS6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.465818509299037</v>
+        <v>22.476918498603968</v>
       </c>
       <c r="AT6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.799610553219935</v>
+        <v>23.663521345603915</v>
       </c>
       <c r="AU6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.673471171146652</v>
+        <v>23.294594137988319</v>
       </c>
       <c r="AV6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19.803438893201523</v>
+        <v>23.174284843573837</v>
       </c>
       <c r="AW6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22.81896966627928</v>
+        <v>23.74654677827866</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
@@ -1585,195 +1577,195 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>15.492367088493285</v>
+        <v>22.211399328077107</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.719069602508824</v>
+        <v>24.724774855852253</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.62845401373621</v>
+        <v>15.953741425651893</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.045058497139763</v>
+        <v>17.927205143480109</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19.688573560215218</v>
+        <v>24.5697333769408</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17.988130753405038</v>
+        <v>17.380060569518957</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.958608769375552</v>
+        <v>19.486561522891833</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.768095558074091</v>
+        <v>18.260656502146908</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.480111896706831</v>
+        <v>19.059878207654855</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.706400825283652</v>
+        <v>15.393802010805688</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.037157387561606</v>
+        <v>17.986448307548841</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.270742489955488</v>
+        <v>20.377037920258978</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.641707066385187</v>
+        <v>24.349541264066929</v>
       </c>
       <c r="O7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.081117987752378</v>
+        <v>17.496690117394966</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19.096153746328355</v>
+        <v>18.864142844618168</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.147318371678786</v>
+        <v>16.715415188126343</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.971449728151477</v>
+        <v>22.977399380201781</v>
       </c>
       <c r="S7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19.949160833926079</v>
+        <v>23.641911586617166</v>
       </c>
       <c r="T7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.93966099086585</v>
+        <v>17.473412789231556</v>
       </c>
       <c r="U7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22.074779680550957</v>
+        <v>24.688226447221844</v>
       </c>
       <c r="V7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15.796591028107304</v>
+        <v>21.407584532534003</v>
       </c>
       <c r="W7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22.93143097517817</v>
+        <v>24.963531735614165</v>
       </c>
       <c r="X7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.543492473469264</v>
+        <v>20.003779036462127</v>
       </c>
       <c r="Y7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.177752851509585</v>
+        <v>21.547418032825327</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.993298438047507</v>
+        <v>23.170843417653881</v>
       </c>
       <c r="AA7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.422229597189137</v>
+        <v>22.665518894165366</v>
       </c>
       <c r="AB7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.57541381481149</v>
+        <v>22.028705836065214</v>
       </c>
       <c r="AC7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.763723740231924</v>
+        <v>21.790533805083111</v>
       </c>
       <c r="AD7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.569109162829438</v>
+        <v>19.89145796964371</v>
       </c>
       <c r="AE7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.607851725758</v>
+        <v>24.842663377412464</v>
       </c>
       <c r="AF7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.607962710936803</v>
+        <v>15.584564394491602</v>
       </c>
       <c r="AG7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.504829081313297</v>
+        <v>23.46282899776671</v>
       </c>
       <c r="AH7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.161331656969502</v>
+        <v>20.635826731955056</v>
       </c>
       <c r="AI7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.01274604122343</v>
+        <v>16.51953196506436</v>
       </c>
       <c r="AJ7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.37082180759332</v>
+        <v>24.688613075828499</v>
       </c>
       <c r="AK7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.388306545489925</v>
+        <v>16.297467323633931</v>
       </c>
       <c r="AL7" s="2">
         <f t="shared" ref="C7:AW13" ca="1" si="2">RAND()*(25-15)+15</f>
-        <v>20.2453608425553</v>
+        <v>15.847107833320859</v>
       </c>
       <c r="AM7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18.080284712489</v>
+        <v>20.141212895869749</v>
       </c>
       <c r="AN7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18.003595136294699</v>
+        <v>19.010377451156678</v>
       </c>
       <c r="AO7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>22.695180837596229</v>
+        <v>19.231356054620775</v>
       </c>
       <c r="AP7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21.205862553611176</v>
+        <v>16.643213178897469</v>
       </c>
       <c r="AQ7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21.639799442838637</v>
+        <v>15.522357028160771</v>
       </c>
       <c r="AR7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15.046081811542688</v>
+        <v>21.602622296601812</v>
       </c>
       <c r="AS7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18.181599182865444</v>
+        <v>16.150796258114713</v>
       </c>
       <c r="AT7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>20.894529024078238</v>
+        <v>24.515960399874341</v>
       </c>
       <c r="AU7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19.138864882319673</v>
+        <v>23.711700621101386</v>
       </c>
       <c r="AV7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19.0015811225894</v>
+        <v>17.035349621786217</v>
       </c>
       <c r="AW7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21.162800411213706</v>
+        <v>19.871649061507409</v>
       </c>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
@@ -1782,195 +1774,195 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.796992473623192</v>
+        <v>17.627438935946298</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15.507819681053562</v>
+        <v>21.806452260962182</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19.328433916964308</v>
+        <v>17.855203419048831</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.224084919869938</v>
+        <v>23.495282877765039</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18.445792510923564</v>
+        <v>16.822605410891789</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.637239175627819</v>
+        <v>15.519369027690058</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>22.955865277292176</v>
+        <v>18.555515939260417</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16.554973514171532</v>
+        <v>24.891467393589025</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23.035757253414758</v>
+        <v>20.993044261953713</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16.19168069357756</v>
+        <v>24.8826695560522</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17.237643535103583</v>
+        <v>22.587377355032057</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>22.39924037519684</v>
+        <v>18.123088703498887</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.730269691617401</v>
+        <v>15.145056823947655</v>
       </c>
       <c r="O8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21.190254910369475</v>
+        <v>17.7302316263957</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21.09703674627271</v>
+        <v>18.319757048301987</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.607153146848042</v>
+        <v>17.210327998311818</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15.760400862864197</v>
+        <v>17.719535217876903</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>20.927073177242427</v>
+        <v>15.459407945549133</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23.611856123683737</v>
+        <v>20.609142126174085</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17.351150208028287</v>
+        <v>24.120052046998474</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18.251680208130388</v>
+        <v>17.530569130801688</v>
       </c>
       <c r="W8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18.394343036891133</v>
+        <v>24.162462864396431</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>20.278434957266384</v>
+        <v>21.780079501062318</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15.394741444333201</v>
+        <v>21.39633415850648</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>22.351021026265386</v>
+        <v>17.692016256199874</v>
       </c>
       <c r="AA8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>22.104715948187049</v>
+        <v>23.082809664583607</v>
       </c>
       <c r="AB8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19.85107918914332</v>
+        <v>20.12659056734385</v>
       </c>
       <c r="AC8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23.773779589871182</v>
+        <v>21.191659606718538</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18.173984864070654</v>
+        <v>19.733288028111062</v>
       </c>
       <c r="AE8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15.663497901427913</v>
+        <v>20.154824410742748</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21.85998878578863</v>
+        <v>21.652048401163526</v>
       </c>
       <c r="AG8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.455746970765762</v>
+        <v>17.865243480300911</v>
       </c>
       <c r="AH8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21.623967048049501</v>
+        <v>23.62293042091045</v>
       </c>
       <c r="AI8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>22.606537635208618</v>
+        <v>18.450688603856193</v>
       </c>
       <c r="AJ8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15.830222539066707</v>
+        <v>21.188044142121562</v>
       </c>
       <c r="AK8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18.613358798589399</v>
+        <v>23.162234699401388</v>
       </c>
       <c r="AL8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15.021143343332138</v>
+        <v>23.672283382881606</v>
       </c>
       <c r="AM8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.05196035836029</v>
+        <v>22.015349957535097</v>
       </c>
       <c r="AN8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23.378763354861395</v>
+        <v>17.866764706669752</v>
       </c>
       <c r="AO8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16.990915629946308</v>
+        <v>18.647439523907355</v>
       </c>
       <c r="AP8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.164867597313528</v>
+        <v>20.429143168719882</v>
       </c>
       <c r="AQ8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.877111850174742</v>
+        <v>22.069522841781897</v>
       </c>
       <c r="AR8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23.196686248557874</v>
+        <v>17.421392509477286</v>
       </c>
       <c r="AS8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17.87411326681131</v>
+        <v>21.000525547296803</v>
       </c>
       <c r="AT8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21.617651860204202</v>
+        <v>18.088157289826523</v>
       </c>
       <c r="AU8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16.444966358673955</v>
+        <v>24.761154974110525</v>
       </c>
       <c r="AV8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>20.241339371663564</v>
+        <v>15.478233960822548</v>
       </c>
       <c r="AW8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15.42779926441416</v>
+        <v>18.943230459174512</v>
       </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
@@ -1979,195 +1971,195 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>20.441622424779958</v>
+        <v>15.571983408257974</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19.302704463623002</v>
+        <v>24.615165795731905</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15.071449702825866</v>
+        <v>22.885611599059793</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.489674011814923</v>
+        <v>22.933235856228094</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15.45875448900564</v>
+        <v>19.443537362624411</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21.331700099827064</v>
+        <v>20.443921878992462</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15.575840586076867</v>
+        <v>22.282016641664324</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>20.82592048740905</v>
+        <v>18.021622280538548</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>20.242385173884315</v>
+        <v>21.521160229432304</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23.542804452133531</v>
+        <v>16.076893610734416</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19.65988093911924</v>
+        <v>18.767439156403427</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>22.799473100306905</v>
+        <v>15.045709164664499</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>22.013298297879569</v>
+        <v>24.445536082010499</v>
       </c>
       <c r="O9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18.373975016027437</v>
+        <v>20.891752680873786</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21.086911814092097</v>
+        <v>22.489576773627718</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16.614247869764057</v>
+        <v>18.278518493046292</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19.706507508039401</v>
+        <v>15.861036290519518</v>
       </c>
       <c r="S9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>20.090631576706777</v>
+        <v>15.424986281240345</v>
       </c>
       <c r="T9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17.816629476882795</v>
+        <v>15.691875930310342</v>
       </c>
       <c r="U9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>20.322262479871313</v>
+        <v>15.626402291085686</v>
       </c>
       <c r="V9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.220030482650856</v>
+        <v>22.082249153504442</v>
       </c>
       <c r="W9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.166443639320871</v>
+        <v>23.726416304108199</v>
       </c>
       <c r="X9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15.331516881637153</v>
+        <v>18.352978207123051</v>
       </c>
       <c r="Y9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17.127797876734732</v>
+        <v>24.06112837656957</v>
       </c>
       <c r="Z9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16.604255340670932</v>
+        <v>18.346332084343324</v>
       </c>
       <c r="AA9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17.378247273416211</v>
+        <v>22.687751947054863</v>
       </c>
       <c r="AB9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21.520080179602395</v>
+        <v>18.054389000663043</v>
       </c>
       <c r="AC9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16.772815967376019</v>
+        <v>17.646139517047246</v>
       </c>
       <c r="AD9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.35496879457191</v>
+        <v>18.084995556033004</v>
       </c>
       <c r="AE9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>20.439834111003194</v>
+        <v>23.86682594982457</v>
       </c>
       <c r="AF9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15.809347799350048</v>
+        <v>24.343161700894917</v>
       </c>
       <c r="AG9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19.587954216090029</v>
+        <v>23.874473659718319</v>
       </c>
       <c r="AH9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.058793090682549</v>
+        <v>16.146357623206349</v>
       </c>
       <c r="AI9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18.72232253526408</v>
+        <v>15.149436888186761</v>
       </c>
       <c r="AJ9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.257165783398804</v>
+        <v>22.215835841872192</v>
       </c>
       <c r="AK9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17.847733378351034</v>
+        <v>24.173375090757851</v>
       </c>
       <c r="AL9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16.768804027442712</v>
+        <v>19.208097228124345</v>
       </c>
       <c r="AM9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18.698930673434752</v>
+        <v>17.503911168442382</v>
       </c>
       <c r="AN9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>22.475266205810343</v>
+        <v>24.833152912470798</v>
       </c>
       <c r="AO9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>22.270896463750063</v>
+        <v>18.585538867481642</v>
       </c>
       <c r="AP9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19.650370218427188</v>
+        <v>17.941077012846776</v>
       </c>
       <c r="AQ9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17.806145266354886</v>
+        <v>24.817995620305997</v>
       </c>
       <c r="AR9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.153460640338643</v>
+        <v>19.258224560649722</v>
       </c>
       <c r="AS9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>22.904327475008611</v>
+        <v>20.513505420348203</v>
       </c>
       <c r="AT9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17.394943749238742</v>
+        <v>20.276851061311486</v>
       </c>
       <c r="AU9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23.23135103843272</v>
+        <v>21.190815396476488</v>
       </c>
       <c r="AV9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21.414341335802334</v>
+        <v>18.490842633605471</v>
       </c>
       <c r="AW9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.717759093814315</v>
+        <v>22.46959425170413</v>
       </c>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
@@ -2176,195 +2168,195 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.005767389564419</v>
+        <v>19.94260184587273</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17.983021544337788</v>
+        <v>22.054904257002857</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16.234592388772128</v>
+        <v>24.4848078884038</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>22.662559675495331</v>
+        <v>17.101959696578309</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>20.812840423736588</v>
+        <v>23.935610715376157</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18.041561148882579</v>
+        <v>23.563335429366852</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.907248314780926</v>
+        <v>17.947192020218015</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.000014298121783</v>
+        <v>15.337152327490536</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16.894587333875201</v>
+        <v>18.906385648490915</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.882914332100604</v>
+        <v>24.287566708989267</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15.016089255977077</v>
+        <v>24.813830957342866</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17.559918950887045</v>
+        <v>22.074595242177892</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>20.882225518402684</v>
+        <v>22.965550897786652</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23.274366635337451</v>
+        <v>24.194292675420499</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16.138480841762622</v>
+        <v>23.756026343730404</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.152437699044793</v>
+        <v>23.053634807648329</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18.981800023368177</v>
+        <v>18.768314670860391</v>
       </c>
       <c r="S10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16.594752043060648</v>
+        <v>19.871730266020649</v>
       </c>
       <c r="T10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17.466585350358152</v>
+        <v>18.923779009026195</v>
       </c>
       <c r="U10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23.496657501972678</v>
+        <v>17.934273474390853</v>
       </c>
       <c r="V10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17.953737424885357</v>
+        <v>17.750433459058073</v>
       </c>
       <c r="W10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23.923223728178844</v>
+        <v>23.351250546145252</v>
       </c>
       <c r="X10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19.657669871057124</v>
+        <v>17.482002518492038</v>
       </c>
       <c r="Y10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17.818304115457302</v>
+        <v>18.339061212532812</v>
       </c>
       <c r="Z10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18.734625086296209</v>
+        <v>16.758692689152809</v>
       </c>
       <c r="AA10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>20.911129687680123</v>
+        <v>19.76387904806165</v>
       </c>
       <c r="AB10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.069828315964759</v>
+        <v>22.848468307556423</v>
       </c>
       <c r="AC10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>22.95084504623458</v>
+        <v>19.767268879090459</v>
       </c>
       <c r="AD10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15.054761704516707</v>
+        <v>23.437074975238016</v>
       </c>
       <c r="AE10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21.813421151867992</v>
+        <v>23.05070338269967</v>
       </c>
       <c r="AF10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23.378861201860186</v>
+        <v>20.084455012576875</v>
       </c>
       <c r="AG10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23.511011866976638</v>
+        <v>20.375412153434031</v>
       </c>
       <c r="AH10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15.235986245717543</v>
+        <v>20.409890413622463</v>
       </c>
       <c r="AI10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>22.312173566790108</v>
+        <v>19.688316792111507</v>
       </c>
       <c r="AJ10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21.318195028736149</v>
+        <v>19.12767509344626</v>
       </c>
       <c r="AK10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18.563751614364914</v>
+        <v>17.955109305776162</v>
       </c>
       <c r="AL10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18.379954569132067</v>
+        <v>24.343147728980057</v>
       </c>
       <c r="AM10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23.49075787566856</v>
+        <v>24.614588446558127</v>
       </c>
       <c r="AN10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18.179641536954584</v>
+        <v>20.47519167039863</v>
       </c>
       <c r="AO10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23.420564943397505</v>
+        <v>16.266219376513448</v>
       </c>
       <c r="AP10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15.755519502925923</v>
+        <v>23.439843028097513</v>
       </c>
       <c r="AQ10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21.126306260617408</v>
+        <v>22.001889241551869</v>
       </c>
       <c r="AR10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21.491429250874621</v>
+        <v>23.497756635821524</v>
       </c>
       <c r="AS10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21.104512693158462</v>
+        <v>17.419485052265451</v>
       </c>
       <c r="AT10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18.486390673413329</v>
+        <v>18.614164635781279</v>
       </c>
       <c r="AU10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23.330883110516677</v>
+        <v>20.359792792302926</v>
       </c>
       <c r="AV10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17.75560055341829</v>
+        <v>22.540160078101568</v>
       </c>
       <c r="AW10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21.278414058408579</v>
+        <v>21.287392731216581</v>
       </c>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
@@ -2373,195 +2365,195 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>22.17046807066745</v>
+        <v>21.538848713097991</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23.111540776497804</v>
+        <v>21.880338509987173</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17.122986324040475</v>
+        <v>17.255921944357656</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23.174863814635756</v>
+        <v>16.085532525220501</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23.487133233507386</v>
+        <v>15.041849060177805</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.299191206287382</v>
+        <v>20.223665592671729</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16.484946404828701</v>
+        <v>15.0573966150241</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17.295754671712491</v>
+        <v>24.034482905164829</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19.26887211553607</v>
+        <v>17.671434301687619</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>22.285850580842045</v>
+        <v>20.947694913066019</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21.890538801891211</v>
+        <v>19.050832892140996</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15.223596600828067</v>
+        <v>21.473082569189437</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19.239528150746107</v>
+        <v>16.133456573312582</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17.420117967770032</v>
+        <v>24.194427998749163</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19.820218491750015</v>
+        <v>18.797517662789168</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17.887922009470667</v>
+        <v>24.893328283561168</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15.889252947489879</v>
+        <v>22.102844316717331</v>
       </c>
       <c r="S11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>20.774019364136937</v>
+        <v>16.419451599408102</v>
       </c>
       <c r="T11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16.695613177858458</v>
+        <v>23.184888418900858</v>
       </c>
       <c r="U11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15.539265104551172</v>
+        <v>21.480719784638353</v>
       </c>
       <c r="V11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15.68989495982385</v>
+        <v>20.492421662775328</v>
       </c>
       <c r="W11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21.016589873700124</v>
+        <v>21.723176133210341</v>
       </c>
       <c r="X11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>22.126012328884769</v>
+        <v>21.99490907301983</v>
       </c>
       <c r="Y11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>22.27429196901798</v>
+        <v>17.938641962904146</v>
       </c>
       <c r="Z11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>20.35570107335225</v>
+        <v>19.92906455709381</v>
       </c>
       <c r="AA11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21.304507569482343</v>
+        <v>17.915058247583879</v>
       </c>
       <c r="AB11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>22.012985541395178</v>
+        <v>17.56569605093275</v>
       </c>
       <c r="AC11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>22.846006631877209</v>
+        <v>18.917090664141007</v>
       </c>
       <c r="AD11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.278296681241279</v>
+        <v>15.6450286407186</v>
       </c>
       <c r="AE11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>20.425033493687003</v>
+        <v>24.336439121823158</v>
       </c>
       <c r="AF11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15.9015318660866</v>
+        <v>18.044263811188536</v>
       </c>
       <c r="AG11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15.520375771966188</v>
+        <v>20.334057610302459</v>
       </c>
       <c r="AH11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23.537323379721414</v>
+        <v>18.824588733588698</v>
       </c>
       <c r="AI11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18.185926428756755</v>
+        <v>17.806969519409535</v>
       </c>
       <c r="AJ11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17.645237955631611</v>
+        <v>23.465232605112849</v>
       </c>
       <c r="AK11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.447310571919346</v>
+        <v>19.401170347793958</v>
       </c>
       <c r="AL11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17.952820591158115</v>
+        <v>24.678362771041073</v>
       </c>
       <c r="AM11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17.996269626634266</v>
+        <v>17.385890098196874</v>
       </c>
       <c r="AN11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>20.000189388576889</v>
+        <v>19.570790886746302</v>
       </c>
       <c r="AO11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.21096785739471</v>
+        <v>23.370615125726552</v>
       </c>
       <c r="AP11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19.031316498682948</v>
+        <v>18.296384716745788</v>
       </c>
       <c r="AQ11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>22.749439105952987</v>
+        <v>16.351648543384968</v>
       </c>
       <c r="AR11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16.311461014853109</v>
+        <v>17.097800118545948</v>
       </c>
       <c r="AS11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15.702982716584742</v>
+        <v>20.800231495224473</v>
       </c>
       <c r="AT11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21.186192957366867</v>
+        <v>15.47093024717498</v>
       </c>
       <c r="AU11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18.530799741724231</v>
+        <v>17.645684101033542</v>
       </c>
       <c r="AV11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19.037740225895817</v>
+        <v>16.75965021034618</v>
       </c>
       <c r="AW11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15.622015140910705</v>
+        <v>17.289479376872773</v>
       </c>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
@@ -2570,195 +2562,195 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>24.269632126924208</v>
+        <v>20.782634042919263</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19.713250653606131</v>
+        <v>19.545505316901028</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16.604238903919278</v>
+        <v>18.512245443488005</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21.365557455795404</v>
+        <v>23.929518170270391</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.002615368254183</v>
+        <v>18.722267836376815</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19.660876937416297</v>
+        <v>16.858047922101591</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16.851654832328666</v>
+        <v>17.737939345646943</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.191839873311377</v>
+        <v>20.481418163159955</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17.223426030027625</v>
+        <v>22.080073391513992</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16.049033814530596</v>
+        <v>19.412028961047675</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>22.293756970340166</v>
+        <v>24.09538900212242</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19.479087513093376</v>
+        <v>16.240216375361619</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19.96490194276193</v>
+        <v>19.992291679610705</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18.995847397643253</v>
+        <v>23.286708136116079</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17.338301169820344</v>
+        <v>22.160477712437114</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19.613776392041402</v>
+        <v>24.575486493848061</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21.311024953768495</v>
+        <v>23.13533929609904</v>
       </c>
       <c r="S12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.543807569180359</v>
+        <v>16.734477181952428</v>
       </c>
       <c r="T12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17.259534813816089</v>
+        <v>18.800377833223859</v>
       </c>
       <c r="U12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23.658739836678023</v>
+        <v>22.552931414295145</v>
       </c>
       <c r="V12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18.859834807588992</v>
+        <v>15.1949865154156</v>
       </c>
       <c r="W12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.742916922559473</v>
+        <v>22.41715441267684</v>
       </c>
       <c r="X12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16.432127256808833</v>
+        <v>15.877586599073279</v>
       </c>
       <c r="Y12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17.435293852687231</v>
+        <v>15.177664617490525</v>
       </c>
       <c r="Z12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16.484317825847132</v>
+        <v>17.295157157134387</v>
       </c>
       <c r="AA12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23.028570864488383</v>
+        <v>16.361804950590827</v>
       </c>
       <c r="AB12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19.236230432736487</v>
+        <v>20.974169762118116</v>
       </c>
       <c r="AC12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.832571264190882</v>
+        <v>17.767019808974691</v>
       </c>
       <c r="AD12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>20.68029042207062</v>
+        <v>18.006422330492434</v>
       </c>
       <c r="AE12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.263883324654024</v>
+        <v>21.656206821028142</v>
       </c>
       <c r="AF12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19.383671308384212</v>
+        <v>16.649762331837568</v>
       </c>
       <c r="AG12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21.805806227795351</v>
+        <v>16.448929430818648</v>
       </c>
       <c r="AH12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19.387271169196136</v>
+        <v>23.949946920091556</v>
       </c>
       <c r="AI12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19.442812367505226</v>
+        <v>15.693750042817406</v>
       </c>
       <c r="AJ12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19.461443036929921</v>
+        <v>15.156090804961561</v>
       </c>
       <c r="AK12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15.798336950585794</v>
+        <v>21.055867657592415</v>
       </c>
       <c r="AL12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18.2665167976239</v>
+        <v>23.146072085703263</v>
       </c>
       <c r="AM12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15.876189915774354</v>
+        <v>18.44299362865415</v>
       </c>
       <c r="AN12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18.506950527740994</v>
+        <v>16.156168405906474</v>
       </c>
       <c r="AO12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19.296498242474016</v>
+        <v>17.9442890367229</v>
       </c>
       <c r="AP12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18.714856551594615</v>
+        <v>15.313598129902548</v>
       </c>
       <c r="AQ12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24.625779660528142</v>
+        <v>16.048487152990084</v>
       </c>
       <c r="AR12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>20.76445999665377</v>
+        <v>16.822418038713398</v>
       </c>
       <c r="AS12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>20.211154619980672</v>
+        <v>19.827638080388304</v>
       </c>
       <c r="AT12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21.227769065527859</v>
+        <v>17.835062654796626</v>
       </c>
       <c r="AU12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15.600410492287434</v>
+        <v>16.824426250265223</v>
       </c>
       <c r="AV12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18.340583860782587</v>
+        <v>15.197264289353352</v>
       </c>
       <c r="AW12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18.386813539402468</v>
+        <v>19.655096636096616</v>
       </c>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
@@ -2767,1771 +2759,1771 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>20.588441230776429</v>
+        <v>16.612699696738122</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15.809707062641747</v>
+        <v>15.665393739944538</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>20.911297947042808</v>
+        <v>18.023036421466841</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21.16648824042538</v>
+        <v>15.127935969845037</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16.835137697330904</v>
+        <v>19.5043048810847</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16.955832028167798</v>
+        <v>15.238154103749759</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>20.390005920854041</v>
+        <v>15.223414176225637</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21.030788175667272</v>
+        <v>19.217288428581806</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17.066371663991397</v>
+        <v>22.353723624691561</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" ref="K13:AW19" ca="1" si="3">RAND()*(25-15)+15</f>
-        <v>21.073292121108086</v>
+        <v>22.457706461726115</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21.454624568352756</v>
+        <v>17.03213642676123</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>23.115912791046227</v>
+        <v>23.275119482232331</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>19.70036987064352</v>
+        <v>23.659383482351544</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>15.39138506102781</v>
+        <v>16.669470114666797</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>19.795907359193173</v>
+        <v>19.857438513041071</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>19.712035141536255</v>
+        <v>18.385117860564502</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.51308065647493</v>
+        <v>15.931612232942117</v>
       </c>
       <c r="S13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>24.754654314254068</v>
+        <v>17.074867594311467</v>
       </c>
       <c r="T13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>23.687258370003832</v>
+        <v>15.711648890055654</v>
       </c>
       <c r="U13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>23.726028638179312</v>
+        <v>24.195049832102338</v>
       </c>
       <c r="V13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>19.087379988205054</v>
+        <v>23.636670997703497</v>
       </c>
       <c r="W13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21.60042335441236</v>
+        <v>19.055962226955806</v>
       </c>
       <c r="X13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18.9520960907839</v>
+        <v>17.215040718467918</v>
       </c>
       <c r="Y13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.865563708690416</v>
+        <v>16.68626201512512</v>
       </c>
       <c r="Z13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20.636116956227603</v>
+        <v>17.757939588698889</v>
       </c>
       <c r="AA13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.521329467711475</v>
+        <v>22.328691287499144</v>
       </c>
       <c r="AB13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.783177904483477</v>
+        <v>16.828832732321136</v>
       </c>
       <c r="AC13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20.269742936345821</v>
+        <v>23.191502484691917</v>
       </c>
       <c r="AD13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>15.29269495070184</v>
+        <v>15.970827702677393</v>
       </c>
       <c r="AE13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.602912912665975</v>
+        <v>22.152746052370404</v>
       </c>
       <c r="AF13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18.895515093076209</v>
+        <v>18.002123466166903</v>
       </c>
       <c r="AG13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>24.369571181090969</v>
+        <v>18.457085081371851</v>
       </c>
       <c r="AH13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.081225511490285</v>
+        <v>21.110683022557971</v>
       </c>
       <c r="AI13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20.230457937872689</v>
+        <v>17.672521075180804</v>
       </c>
       <c r="AJ13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>24.014072064930232</v>
+        <v>21.924990397533964</v>
       </c>
       <c r="AK13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18.828053140281028</v>
+        <v>15.390669854076302</v>
       </c>
       <c r="AL13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18.638475676312691</v>
+        <v>21.100661044455055</v>
       </c>
       <c r="AM13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20.189186968512775</v>
+        <v>24.00338793601307</v>
       </c>
       <c r="AN13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>24.355880222019845</v>
+        <v>20.475607366959203</v>
       </c>
       <c r="AO13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.355170033319368</v>
+        <v>23.903946630425303</v>
       </c>
       <c r="AP13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21.173784636529508</v>
+        <v>17.896080442619809</v>
       </c>
       <c r="AQ13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>22.758722037000013</v>
+        <v>20.181623165330596</v>
       </c>
       <c r="AR13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>15.539896697180918</v>
+        <v>23.67450097359454</v>
       </c>
       <c r="AS13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20.818390365310801</v>
+        <v>19.951146752048512</v>
       </c>
       <c r="AT13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18.41159656535357</v>
+        <v>22.264908546423122</v>
       </c>
       <c r="AU13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.064444359740897</v>
+        <v>20.806614596235942</v>
       </c>
       <c r="AV13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>19.792822289239208</v>
+        <v>21.506872564799004</v>
       </c>
       <c r="AW13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>23.471963321324157</v>
+        <v>16.281756448160156</v>
       </c>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>21.703915134422061</v>
+        <v>24.412709161825148</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>17.542214126708004</v>
+        <v>17.601836365462432</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>15.5011093845386</v>
+        <v>20.673228029511556</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>21.420748354014037</v>
+        <v>23.357777219390407</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>23.861131760012295</v>
+        <v>20.927216863465912</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>16.693024564676435</v>
+        <v>20.584672839844838</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>22.804530641355662</v>
+        <v>22.810265264844279</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>18.161609253792474</v>
+        <v>21.93727607476886</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>18.093405708336782</v>
+        <v>23.664366073414016</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18.077943208191087</v>
+        <v>20.029265262192709</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.355285737516503</v>
+        <v>18.012468879078718</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>22.469574667492282</v>
+        <v>21.477424953285858</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>19.886590026836679</v>
+        <v>16.949729962046892</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20.274481420891313</v>
+        <v>17.697399790820715</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.260161242312652</v>
+        <v>21.686119557917216</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>15.284713640767396</v>
+        <v>21.123974777607572</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.665975732103526</v>
+        <v>15.902029771269165</v>
       </c>
       <c r="S14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>15.36836279962619</v>
+        <v>23.770249552399797</v>
       </c>
       <c r="T14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21.367072136533096</v>
+        <v>23.510717793171697</v>
       </c>
       <c r="U14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>22.324147710280219</v>
+        <v>20.183864328415616</v>
       </c>
       <c r="V14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21.381691824578084</v>
+        <v>24.443244426289613</v>
       </c>
       <c r="W14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.488949527656004</v>
+        <v>22.431487646709542</v>
       </c>
       <c r="X14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>23.767541954344363</v>
+        <v>22.907662823858715</v>
       </c>
       <c r="Y14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>15.252435968750381</v>
+        <v>21.759072116693076</v>
       </c>
       <c r="Z14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20.97140412061637</v>
+        <v>17.096821619113268</v>
       </c>
       <c r="AA14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18.551772153841199</v>
+        <v>15.522231989479492</v>
       </c>
       <c r="AB14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18.352538873690541</v>
+        <v>21.447213648424736</v>
       </c>
       <c r="AC14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18.315155557775192</v>
+        <v>15.628236581567435</v>
       </c>
       <c r="AD14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>15.31285239237477</v>
+        <v>17.562318404020296</v>
       </c>
       <c r="AE14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>15.132775984184748</v>
+        <v>24.569215578492212</v>
       </c>
       <c r="AF14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18.723652833737503</v>
+        <v>20.395080608616567</v>
       </c>
       <c r="AG14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21.76470075371634</v>
+        <v>23.746215994605219</v>
       </c>
       <c r="AH14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.337084844860897</v>
+        <v>22.008387670592207</v>
       </c>
       <c r="AI14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.32899000239939</v>
+        <v>21.090250417934357</v>
       </c>
       <c r="AJ14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20.067896572651552</v>
+        <v>21.226787705408462</v>
       </c>
       <c r="AK14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18.532039003215495</v>
+        <v>23.152549902963209</v>
       </c>
       <c r="AL14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18.075224717152885</v>
+        <v>24.441264927257819</v>
       </c>
       <c r="AM14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>19.125787437376705</v>
+        <v>24.107033229065053</v>
       </c>
       <c r="AN14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>15.267047301715955</v>
+        <v>17.784771240957632</v>
       </c>
       <c r="AO14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20.125456627991742</v>
+        <v>23.544141053336666</v>
       </c>
       <c r="AP14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.160408878686795</v>
+        <v>22.87925169051357</v>
       </c>
       <c r="AQ14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.967667338648589</v>
+        <v>16.89141536056983</v>
       </c>
       <c r="AR14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.449837380812198</v>
+        <v>23.836869880303418</v>
       </c>
       <c r="AS14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20.321635047564726</v>
+        <v>16.056616350081629</v>
       </c>
       <c r="AT14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>23.627217772922553</v>
+        <v>15.745103179247426</v>
       </c>
       <c r="AU14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>19.746987909185826</v>
+        <v>23.271808552847929</v>
       </c>
       <c r="AV14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>24.270436646650353</v>
+        <v>15.692336278510709</v>
       </c>
       <c r="AW14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.472268701383172</v>
+        <v>18.018499065680157</v>
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>18.842629506020295</v>
+        <v>21.0290648020475</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>22.937690713741993</v>
+        <v>19.356010903049775</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>17.185292996672366</v>
+        <v>18.363521296675266</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>21.632503749648624</v>
+        <v>21.532327456357411</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>20.633151376685582</v>
+        <v>18.141556145471085</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>22.552342262661607</v>
+        <v>16.649861752810139</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>17.580924294984573</v>
+        <v>17.577253753243323</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.45324558051357</v>
+        <v>19.348140933973053</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.522908687610393</v>
+        <v>22.415638125174926</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18.774963146858404</v>
+        <v>17.731448259021782</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>23.563202938070479</v>
+        <v>15.017934164200767</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>22.232526809430372</v>
+        <v>23.971322663552321</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>24.656961944237892</v>
+        <v>15.532854207014584</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>23.613946952128266</v>
+        <v>21.488632046561708</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.644969710393163</v>
+        <v>17.212144987908115</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.48212535112139</v>
+        <v>18.643602202440334</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21.474325372119779</v>
+        <v>17.831654055910992</v>
       </c>
       <c r="S15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>15.918164148090062</v>
+        <v>18.179457813971077</v>
       </c>
       <c r="T15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21.397857385633746</v>
+        <v>15.704304823553203</v>
       </c>
       <c r="U15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>15.632175389807234</v>
+        <v>23.358347438574661</v>
       </c>
       <c r="V15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18.644093470925629</v>
+        <v>19.612426939204099</v>
       </c>
       <c r="W15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>24.285333581409006</v>
+        <v>17.760209275536752</v>
       </c>
       <c r="X15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>22.488019126579317</v>
+        <v>24.330237362238087</v>
       </c>
       <c r="Y15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>19.418161200912358</v>
+        <v>16.509505328420918</v>
       </c>
       <c r="Z15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>19.584263836881842</v>
+        <v>22.782117681869874</v>
       </c>
       <c r="AA15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>19.629544897615133</v>
+        <v>22.551156902815343</v>
       </c>
       <c r="AB15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>15.827835764055381</v>
+        <v>22.193213744480548</v>
       </c>
       <c r="AC15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.174464421249137</v>
+        <v>20.723452523107571</v>
       </c>
       <c r="AD15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.718373202431749</v>
+        <v>19.093005516378266</v>
       </c>
       <c r="AE15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>24.523253172992533</v>
+        <v>24.721614829841073</v>
       </c>
       <c r="AF15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>24.348016250276178</v>
+        <v>22.187546055300473</v>
       </c>
       <c r="AG15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21.717625976728698</v>
+        <v>18.157759514016455</v>
       </c>
       <c r="AH15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>23.614138777432284</v>
+        <v>15.581047162839596</v>
       </c>
       <c r="AI15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>23.917772292931403</v>
+        <v>20.689101738503126</v>
       </c>
       <c r="AJ15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.174615722950339</v>
+        <v>20.456714534637129</v>
       </c>
       <c r="AK15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>15.488965270359031</v>
+        <v>17.133908783976167</v>
       </c>
       <c r="AL15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>23.688630156490639</v>
+        <v>21.388786554043566</v>
       </c>
       <c r="AM15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20.885217345023669</v>
+        <v>20.452767858213594</v>
       </c>
       <c r="AN15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18.073317748586426</v>
+        <v>22.04331443004736</v>
       </c>
       <c r="AO15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.433738750960977</v>
+        <v>24.02452582973649</v>
       </c>
       <c r="AP15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.992543033357581</v>
+        <v>23.988970143668467</v>
       </c>
       <c r="AQ15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.903961493108373</v>
+        <v>17.432508885533228</v>
       </c>
       <c r="AR15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.423815366738459</v>
+        <v>24.380205873740593</v>
       </c>
       <c r="AS15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.068913580070998</v>
+        <v>17.65778921465342</v>
       </c>
       <c r="AT15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>23.522950326831818</v>
+        <v>19.826522226907514</v>
       </c>
       <c r="AU15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.795481177016551</v>
+        <v>19.267594956380492</v>
       </c>
       <c r="AV15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20.186186387544193</v>
+        <v>17.79568905796447</v>
       </c>
       <c r="AW15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18.779746208603409</v>
+        <v>15.294323899590497</v>
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>18.446800930740146</v>
+        <v>18.410486979182814</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>20.774860573650731</v>
+        <v>18.761604944600482</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>22.624654991793754</v>
+        <v>17.161222000639945</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>24.966533764404595</v>
+        <v>16.22349295765888</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>23.612988373232621</v>
+        <v>15.169820933518912</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>16.273234406907292</v>
+        <v>18.75915265794648</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>21.147590792932547</v>
+        <v>24.182135615894389</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>23.820367612212067</v>
+        <v>22.296060693245636</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>21.845471550160518</v>
+        <v>21.432894470352188</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.585811268293554</v>
+        <v>24.434499244604218</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>23.424678089904901</v>
+        <v>24.043954695323762</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>22.360242959266046</v>
+        <v>16.837257692509279</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21.798068059922706</v>
+        <v>24.944693843148329</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>15.260330401524257</v>
+        <v>24.35616864425878</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>15.8231050131944</v>
+        <v>21.550846119070101</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.459180067507702</v>
+        <v>17.985085850380198</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>22.174333531616718</v>
+        <v>17.79054132482219</v>
       </c>
       <c r="S16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.098614075643162</v>
+        <v>24.977687266163286</v>
       </c>
       <c r="T16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.389965174968584</v>
+        <v>23.710010331184858</v>
       </c>
       <c r="U16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>15.934428356737918</v>
+        <v>24.078376602587554</v>
       </c>
       <c r="V16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>24.279033600671269</v>
+        <v>15.389629829728486</v>
       </c>
       <c r="W16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21.824432245090655</v>
+        <v>18.857680187112422</v>
       </c>
       <c r="X16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.942657391690545</v>
+        <v>22.904035776630288</v>
       </c>
       <c r="Y16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>19.27043485900402</v>
+        <v>15.058696870593403</v>
       </c>
       <c r="Z16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.703718897304732</v>
+        <v>17.204191564026811</v>
       </c>
       <c r="AA16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20.715801855400631</v>
+        <v>18.890070201536805</v>
       </c>
       <c r="AB16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21.283392660040729</v>
+        <v>17.397322451163724</v>
       </c>
       <c r="AC16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>22.794014886072723</v>
+        <v>21.487191901184062</v>
       </c>
       <c r="AD16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18.045565591145802</v>
+        <v>17.087606208401724</v>
       </c>
       <c r="AE16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>15.217527304324111</v>
+        <v>17.6596109465886</v>
       </c>
       <c r="AF16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>22.927187216088196</v>
+        <v>22.084173695824735</v>
       </c>
       <c r="AG16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>22.972794340053039</v>
+        <v>15.298688888084904</v>
       </c>
       <c r="AH16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>19.570033193778443</v>
+        <v>17.670292841506097</v>
       </c>
       <c r="AI16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.114610877026902</v>
+        <v>17.297605414713551</v>
       </c>
       <c r="AJ16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>24.735785517105292</v>
+        <v>18.153027190419024</v>
       </c>
       <c r="AK16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>19.104544650962268</v>
+        <v>18.499062177728497</v>
       </c>
       <c r="AL16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.557030828032438</v>
+        <v>15.789238712252978</v>
       </c>
       <c r="AM16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>24.215005844345402</v>
+        <v>15.301507466839164</v>
       </c>
       <c r="AN16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>24.491922136503824</v>
+        <v>19.238504289996115</v>
       </c>
       <c r="AO16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>24.202349836472919</v>
+        <v>24.520626025756656</v>
       </c>
       <c r="AP16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.987184809996293</v>
+        <v>21.967077778474163</v>
       </c>
       <c r="AQ16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20.212949151419377</v>
+        <v>21.463305347900718</v>
       </c>
       <c r="AR16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>22.117615464215362</v>
+        <v>22.39062880059981</v>
       </c>
       <c r="AS16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21.988176836196285</v>
+        <v>24.535249140177584</v>
       </c>
       <c r="AT16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>15.402187644701666</v>
+        <v>24.751719895736031</v>
       </c>
       <c r="AU16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.020411158876684</v>
+        <v>19.352672073757837</v>
       </c>
       <c r="AV16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>23.917665681623497</v>
+        <v>16.010518716729646</v>
       </c>
       <c r="AW16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21.31588638996654</v>
+        <v>15.38793033905019</v>
       </c>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>15.102191188315562</v>
+        <v>15.814004349989029</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>15.653211728559782</v>
+        <v>19.730797317033328</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.491009639413633</v>
+        <v>18.29715035297162</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>20.852255220434387</v>
+        <v>17.175361785480515</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>23.05163293788079</v>
+        <v>17.490068829809363</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>18.959595095606907</v>
+        <v>17.612345117462699</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>17.841095552095172</v>
+        <v>17.186691641171784</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>23.671797169348096</v>
+        <v>17.831986615377648</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>17.70993290242081</v>
+        <v>15.92973381150307</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.754679906309882</v>
+        <v>18.091314563720413</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.199874696225578</v>
+        <v>15.391801440028201</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20.210117256702418</v>
+        <v>21.56609546360594</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>24.877643528869207</v>
+        <v>16.856031002953728</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.176937029670125</v>
+        <v>24.227905855995381</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20.548575262141789</v>
+        <v>24.454055285861777</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>22.042049883702383</v>
+        <v>17.422324955034306</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21.178040725344854</v>
+        <v>22.620377147969862</v>
       </c>
       <c r="S17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21.953723498970078</v>
+        <v>18.572559612793757</v>
       </c>
       <c r="T17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.418489207410026</v>
+        <v>17.758876145368003</v>
       </c>
       <c r="U17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20.706423239176612</v>
+        <v>24.221224028824661</v>
       </c>
       <c r="V17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21.215972161310308</v>
+        <v>19.9172388214437</v>
       </c>
       <c r="W17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21.498735088472479</v>
+        <v>20.611468460151766</v>
       </c>
       <c r="X17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18.32596753501636</v>
+        <v>22.565043953317399</v>
       </c>
       <c r="Y17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>23.747678359501425</v>
+        <v>23.468546853442476</v>
       </c>
       <c r="Z17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.555967268430802</v>
+        <v>20.484357603642774</v>
       </c>
       <c r="AA17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.814915449899992</v>
+        <v>18.504256508097587</v>
       </c>
       <c r="AB17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18.55112347714298</v>
+        <v>20.279265164678232</v>
       </c>
       <c r="AC17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21.910111578950648</v>
+        <v>15.125413732889005</v>
       </c>
       <c r="AD17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21.471019602106963</v>
+        <v>22.118780515755731</v>
       </c>
       <c r="AE17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>15.052562294512548</v>
+        <v>15.481602036242945</v>
       </c>
       <c r="AF17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>22.875941520681454</v>
+        <v>19.285938043202027</v>
       </c>
       <c r="AG17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21.333563197505569</v>
+        <v>24.592245941648159</v>
       </c>
       <c r="AH17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>15.332146752040698</v>
+        <v>19.632706013982386</v>
       </c>
       <c r="AI17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.740623436234486</v>
+        <v>20.473060673190353</v>
       </c>
       <c r="AJ17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>24.851814268075287</v>
+        <v>17.303145982391491</v>
       </c>
       <c r="AK17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.998370314423546</v>
+        <v>22.864376860137085</v>
       </c>
       <c r="AL17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>19.379745481364736</v>
+        <v>15.372120561516557</v>
       </c>
       <c r="AM17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.014172857551014</v>
+        <v>23.562615106739152</v>
       </c>
       <c r="AN17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21.326054035590218</v>
+        <v>15.845545118304043</v>
       </c>
       <c r="AO17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>19.96090993252324</v>
+        <v>23.18547165003185</v>
       </c>
       <c r="AP17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>22.765435073987902</v>
+        <v>17.289578633725558</v>
       </c>
       <c r="AQ17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.110736388610562</v>
+        <v>19.32566068850393</v>
       </c>
       <c r="AR17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.570063377595925</v>
+        <v>21.050714445647024</v>
       </c>
       <c r="AS17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>23.664932977585263</v>
+        <v>16.834963363536374</v>
       </c>
       <c r="AT17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>24.297095362686392</v>
+        <v>24.036423464469422</v>
       </c>
       <c r="AU17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21.429969853333517</v>
+        <v>20.879410574741108</v>
       </c>
       <c r="AV17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21.648339804674194</v>
+        <v>21.096899048059239</v>
       </c>
       <c r="AW17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20.352554500563141</v>
+        <v>21.52517014266045</v>
       </c>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>18.37501045464245</v>
+        <v>18.47977971551742</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>18.254023481991499</v>
+        <v>21.968150611143681</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>18.627396331986617</v>
+        <v>21.082028523506473</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>18.851358885751583</v>
+        <v>17.290221546889569</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>23.587842203513581</v>
+        <v>15.863481411095549</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>18.152404656242979</v>
+        <v>22.991837330851219</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>15.273320809234797</v>
+        <v>15.78492380222402</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>23.900322505577478</v>
+        <v>22.629315055488323</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>24.243567824864421</v>
+        <v>20.538096999029378</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.580388348582076</v>
+        <v>24.1130301974028</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.835906180498654</v>
+        <v>22.406248547089909</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20.637411351154284</v>
+        <v>16.377320572642724</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>22.041914107760803</v>
+        <v>21.355695748397835</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.369161281709307</v>
+        <v>17.929573997165228</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.987850749845492</v>
+        <v>20.202258815884448</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20.249854900594002</v>
+        <v>23.333239001992588</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18.512936912638477</v>
+        <v>17.714999750266063</v>
       </c>
       <c r="S18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>23.705667975298461</v>
+        <v>16.030681214875809</v>
       </c>
       <c r="T18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20.460137230256663</v>
+        <v>22.675595800193765</v>
       </c>
       <c r="U18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>23.83876771713112</v>
+        <v>15.192341227126022</v>
       </c>
       <c r="V18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>23.787835347614177</v>
+        <v>17.695270783115419</v>
       </c>
       <c r="W18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>24.484677322376573</v>
+        <v>15.497665717548728</v>
       </c>
       <c r="X18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>23.572979450697758</v>
+        <v>20.053588955399729</v>
       </c>
       <c r="Y18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18.663698202075388</v>
+        <v>16.239381324975621</v>
       </c>
       <c r="Z18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20.973211792886129</v>
+        <v>21.781201329427923</v>
       </c>
       <c r="AA18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18.86455222193494</v>
+        <v>16.96035848703184</v>
       </c>
       <c r="AB18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.807094425687914</v>
+        <v>16.573854847693106</v>
       </c>
       <c r="AC18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.895052485097274</v>
+        <v>20.611156363921694</v>
       </c>
       <c r="AD18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.879069850589108</v>
+        <v>19.762604051902041</v>
       </c>
       <c r="AE18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>23.918749844971728</v>
+        <v>18.981309805408607</v>
       </c>
       <c r="AF18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>23.414489392885585</v>
+        <v>21.476454322248468</v>
       </c>
       <c r="AG18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.975584370802707</v>
+        <v>15.129099069757823</v>
       </c>
       <c r="AH18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.07949719648618</v>
+        <v>20.597110875283846</v>
       </c>
       <c r="AI18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>24.232676594082683</v>
+        <v>19.257397698030527</v>
       </c>
       <c r="AJ18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18.071431375786016</v>
+        <v>18.00594694309223</v>
       </c>
       <c r="AK18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20.715219924693294</v>
+        <v>17.290312309062561</v>
       </c>
       <c r="AL18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>23.646235093343147</v>
+        <v>20.271769546918488</v>
       </c>
       <c r="AM18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.579013107824188</v>
+        <v>19.235910329204721</v>
       </c>
       <c r="AN18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>19.264489271242113</v>
+        <v>19.862451231181709</v>
       </c>
       <c r="AO18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>23.291225380389125</v>
+        <v>19.503249501474674</v>
       </c>
       <c r="AP18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18.869800162129433</v>
+        <v>15.407798298755424</v>
       </c>
       <c r="AQ18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>22.160988457413069</v>
+        <v>19.712467480454343</v>
       </c>
       <c r="AR18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.793857217770405</v>
+        <v>21.276658984430494</v>
       </c>
       <c r="AS18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.633977039289384</v>
+        <v>22.315379276953841</v>
       </c>
       <c r="AT18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21.336990746671773</v>
+        <v>19.888175291517552</v>
       </c>
       <c r="AU18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18.820309724474107</v>
+        <v>24.262661779131843</v>
       </c>
       <c r="AV18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>19.777258817178698</v>
+        <v>18.574580614727488</v>
       </c>
       <c r="AW18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18.963104413010832</v>
+        <v>20.114328847637811</v>
       </c>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" ref="B19:Q21" ca="1" si="4">RAND()*(25-15)+15</f>
-        <v>18.504946616851804</v>
+        <v>16.923863256411259</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>19.028664751478303</v>
+        <v>23.054652054275749</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>21.201464762337469</v>
+        <v>15.979816150488409</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>19.754956226630725</v>
+        <v>23.854551964364099</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>21.00671309282875</v>
+        <v>20.404346551680135</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>19.224379624702017</v>
+        <v>21.447324136459429</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15.75433975045781</v>
+        <v>18.33953253739892</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>19.365259703684742</v>
+        <v>24.634966162290716</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>17.099272529410555</v>
+        <v>23.350980766009958</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>15.159506673057004</v>
+        <v>24.174925980656287</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.692889961543564</v>
+        <v>24.756687822496996</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>22.629158430980553</v>
+        <v>21.116408407293942</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>19.094768256365406</v>
+        <v>17.506786228341415</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.623666536750697</v>
+        <v>15.088010204193038</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>23.539695806832594</v>
+        <v>21.645519343148958</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20.098282973299817</v>
+        <v>23.049561231193227</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.496834387987874</v>
+        <v>19.099797922110387</v>
       </c>
       <c r="S19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21.215675072795335</v>
+        <v>24.885438967209893</v>
       </c>
       <c r="T19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.690321521958108</v>
+        <v>19.162759757380947</v>
       </c>
       <c r="U19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18.974527923380666</v>
+        <v>23.793287425908716</v>
       </c>
       <c r="V19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16.834931731574883</v>
+        <v>23.936116667688065</v>
       </c>
       <c r="W19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18.509503865383845</v>
+        <v>24.18320491407453</v>
       </c>
       <c r="X19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>15.270129768341743</v>
+        <v>23.517744619829433</v>
       </c>
       <c r="Y19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21.876623841106852</v>
+        <v>20.781060348404445</v>
       </c>
       <c r="Z19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>22.105684904978418</v>
+        <v>18.947709286858331</v>
       </c>
       <c r="AA19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.149631050230351</v>
+        <v>23.099836050713851</v>
       </c>
       <c r="AB19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>22.352285089930742</v>
+        <v>15.884363169423796</v>
       </c>
       <c r="AC19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>22.693917801201128</v>
+        <v>17.399505209453284</v>
       </c>
       <c r="AD19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17.166682962100207</v>
+        <v>24.863292159519162</v>
       </c>
       <c r="AE19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>22.984348042678757</v>
+        <v>21.051078319353561</v>
       </c>
       <c r="AF19" s="2">
         <f t="shared" ref="AF19:AU21" ca="1" si="5">RAND()*(25-15)+15</f>
-        <v>17.041532438616478</v>
+        <v>22.55872087861205</v>
       </c>
       <c r="AG19" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>17.577205998590831</v>
+        <v>18.228582982104285</v>
       </c>
       <c r="AH19" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>16.334193636848003</v>
+        <v>21.253453928976114</v>
       </c>
       <c r="AI19" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>17.369664861975725</v>
+        <v>15.645300650793841</v>
       </c>
       <c r="AJ19" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>22.406579195755064</v>
+        <v>19.514584927506803</v>
       </c>
       <c r="AK19" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>23.946866683492566</v>
+        <v>20.623217853376133</v>
       </c>
       <c r="AL19" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>18.392385181077163</v>
+        <v>24.13752220439266</v>
       </c>
       <c r="AM19" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>17.456388396262625</v>
+        <v>16.405930308713348</v>
       </c>
       <c r="AN19" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>22.980001043363991</v>
+        <v>16.594549288477193</v>
       </c>
       <c r="AO19" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>21.079345926319675</v>
+        <v>17.319824885098136</v>
       </c>
       <c r="AP19" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>18.208679226859893</v>
+        <v>18.506996846937142</v>
       </c>
       <c r="AQ19" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>19.084314602767304</v>
+        <v>22.415236436662397</v>
       </c>
       <c r="AR19" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>15.677552058806688</v>
+        <v>19.719764359776836</v>
       </c>
       <c r="AS19" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>19.266541174289642</v>
+        <v>16.836472574900895</v>
       </c>
       <c r="AT19" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>18.577460146949825</v>
+        <v>20.266180497699519</v>
       </c>
       <c r="AU19" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>23.650981914797708</v>
+        <v>21.032732879004563</v>
       </c>
       <c r="AV19" s="2">
         <f t="shared" ref="AV19:AW21" ca="1" si="6">RAND()*(25-15)+15</f>
-        <v>19.999927209291297</v>
+        <v>19.045814691878526</v>
       </c>
       <c r="AW19" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>21.1140576106989</v>
+        <v>20.931246007141379</v>
       </c>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>24.524199318650588</v>
+        <v>15.480445749937328</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>16.850621906043173</v>
+        <v>24.720520393410837</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>20.407168358028819</v>
+        <v>17.709659320667068</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>17.704385861017528</v>
+        <v>16.916990173307408</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>21.875180025693616</v>
+        <v>18.490677890942166</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>22.49156872871259</v>
+        <v>24.634382155819878</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>20.108755212611207</v>
+        <v>18.367525404681228</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>18.414280507489764</v>
+        <v>21.326144169026975</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>22.272483290673257</v>
+        <v>17.221275802077983</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>22.95279213109464</v>
+        <v>22.989744306767594</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>16.397748299162032</v>
+        <v>17.754689764185123</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>19.47865402778767</v>
+        <v>23.542671016457401</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>21.624492234030232</v>
+        <v>23.855561036094151</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>21.868414775075443</v>
+        <v>15.891808185342517</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15.952771354952102</v>
+        <v>21.637712462659536</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>24.21975216193756</v>
+        <v>19.118008549875594</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" ref="R20:AG21" ca="1" si="7">RAND()*(25-15)+15</f>
-        <v>23.039602079783144</v>
+        <v>16.896513618333874</v>
       </c>
       <c r="S20" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>23.122138527197514</v>
+        <v>21.758438577703046</v>
       </c>
       <c r="T20" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>24.379260328618074</v>
+        <v>23.825707881584027</v>
       </c>
       <c r="U20" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>15.657626646210737</v>
+        <v>15.66513747096058</v>
       </c>
       <c r="V20" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>17.808441401980023</v>
+        <v>22.155232415001137</v>
       </c>
       <c r="W20" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>18.249239165631362</v>
+        <v>16.284617086285742</v>
       </c>
       <c r="X20" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>24.851433324153135</v>
+        <v>24.685964420791951</v>
       </c>
       <c r="Y20" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>24.875723720808573</v>
+        <v>19.92461474506273</v>
       </c>
       <c r="Z20" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>17.32617018223716</v>
+        <v>18.666325575483228</v>
       </c>
       <c r="AA20" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>21.923869976982559</v>
+        <v>19.282645451456126</v>
       </c>
       <c r="AB20" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>24.87683203190609</v>
+        <v>21.005519458615517</v>
       </c>
       <c r="AC20" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>18.807951064517635</v>
+        <v>22.161520708325675</v>
       </c>
       <c r="AD20" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>16.784027531926743</v>
+        <v>21.487956578886305</v>
       </c>
       <c r="AE20" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>15.645853444224818</v>
+        <v>17.082251884720769</v>
       </c>
       <c r="AF20" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>22.951074968126182</v>
+        <v>17.05146988208519</v>
       </c>
       <c r="AG20" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>15.428166210329966</v>
+        <v>20.056284287203013</v>
       </c>
       <c r="AH20" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>23.553150789903977</v>
+        <v>16.920090638299939</v>
       </c>
       <c r="AI20" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>15.891577441582353</v>
+        <v>18.236342626597626</v>
       </c>
       <c r="AJ20" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>18.029484135562655</v>
+        <v>15.750717506289753</v>
       </c>
       <c r="AK20" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>22.937425458607187</v>
+        <v>20.443539033122363</v>
       </c>
       <c r="AL20" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>15.440694400188757</v>
+        <v>23.741260396443984</v>
       </c>
       <c r="AM20" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>21.289320086635577</v>
+        <v>18.701122697586179</v>
       </c>
       <c r="AN20" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>21.795261108965114</v>
+        <v>19.234848714507176</v>
       </c>
       <c r="AO20" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>23.857369434807453</v>
+        <v>18.312961396943408</v>
       </c>
       <c r="AP20" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>19.118806990763613</v>
+        <v>17.800968424261807</v>
       </c>
       <c r="AQ20" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>22.194615487970658</v>
+        <v>21.744074195076614</v>
       </c>
       <c r="AR20" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>21.841512037002929</v>
+        <v>22.774444649147227</v>
       </c>
       <c r="AS20" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>17.140175819469569</v>
+        <v>23.224869692029415</v>
       </c>
       <c r="AT20" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>20.371235693579628</v>
+        <v>16.501171202614476</v>
       </c>
       <c r="AU20" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>18.251417242562475</v>
+        <v>16.707630622799751</v>
       </c>
       <c r="AV20" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>16.1550599212223</v>
+        <v>24.21395558003654</v>
       </c>
       <c r="AW20" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>16.305110678221666</v>
+        <v>18.671172603161313</v>
       </c>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>17.324594842565595</v>
+        <v>19.923898482159764</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15.887219144564767</v>
+        <v>16.179533752907954</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>24.862498186232969</v>
+        <v>20.418448443806327</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>22.093349453068338</v>
+        <v>18.348611282863146</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15.230917248105166</v>
+        <v>21.898803288433648</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>21.727630056378668</v>
+        <v>22.176910969915237</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>18.121130950761529</v>
+        <v>20.181331381898815</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15.081734431022509</v>
+        <v>18.69081077090491</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>16.452256579643855</v>
+        <v>21.061889361337808</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>24.869106766301591</v>
+        <v>22.244998296233927</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>20.907149586889275</v>
+        <v>20.848184610628735</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>17.187752127580765</v>
+        <v>15.209034663246797</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>18.647161575904793</v>
+        <v>19.156711095232822</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15.225162595862846</v>
+        <v>15.950464648840484</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15.983885520787437</v>
+        <v>24.343949368378304</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>20.166039640998399</v>
+        <v>23.198406305902807</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>20.257704158788929</v>
+        <v>23.290628018024194</v>
       </c>
       <c r="S21" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>17.213580138198079</v>
+        <v>16.727885151607168</v>
       </c>
       <c r="T21" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>23.233083228056458</v>
+        <v>16.081374347996444</v>
       </c>
       <c r="U21" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>15.320289250318096</v>
+        <v>23.113259131586183</v>
       </c>
       <c r="V21" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>18.873429544223669</v>
+        <v>19.713771292001304</v>
       </c>
       <c r="W21" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>20.454679362860158</v>
+        <v>23.335770983036994</v>
       </c>
       <c r="X21" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>18.083977029612221</v>
+        <v>16.961701846931398</v>
       </c>
       <c r="Y21" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>23.667402321538376</v>
+        <v>20.28767894893879</v>
       </c>
       <c r="Z21" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>16.084235971994651</v>
+        <v>22.754202046628652</v>
       </c>
       <c r="AA21" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>18.291312847916583</v>
+        <v>23.429894897439045</v>
       </c>
       <c r="AB21" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>16.568803208482215</v>
+        <v>23.10513532813102</v>
       </c>
       <c r="AC21" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>21.880251237240554</v>
+        <v>17.598875871468053</v>
       </c>
       <c r="AD21" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>15.113658356895272</v>
+        <v>20.130999159359071</v>
       </c>
       <c r="AE21" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>20.593610222391838</v>
+        <v>20.560270385639541</v>
       </c>
       <c r="AF21" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>20.021677242786915</v>
+        <v>19.8301230110193</v>
       </c>
       <c r="AG21" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>21.769122009307097</v>
+        <v>20.844898226514413</v>
       </c>
       <c r="AH21" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>23.707559651787797</v>
+        <v>24.61677968100955</v>
       </c>
       <c r="AI21" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>22.33496273096743</v>
+        <v>16.575085006935122</v>
       </c>
       <c r="AJ21" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>24.692218025091581</v>
+        <v>21.985448928682576</v>
       </c>
       <c r="AK21" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>21.714378637320152</v>
+        <v>17.784195996324144</v>
       </c>
       <c r="AL21" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>18.509809033714028</v>
+        <v>24.841808247348688</v>
       </c>
       <c r="AM21" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>20.479778400492815</v>
+        <v>17.796624322182147</v>
       </c>
       <c r="AN21" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>21.721111553937217</v>
+        <v>24.536914502469244</v>
       </c>
       <c r="AO21" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>23.096597648864332</v>
+        <v>18.02461392709953</v>
       </c>
       <c r="AP21" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>19.695688616665219</v>
+        <v>23.244349983702328</v>
       </c>
       <c r="AQ21" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>19.49380822395284</v>
+        <v>21.108145162407315</v>
       </c>
       <c r="AR21" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>16.209528054419849</v>
+        <v>16.360714870339891</v>
       </c>
       <c r="AS21" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>20.06134409217907</v>
+        <v>19.926115300137042</v>
       </c>
       <c r="AT21" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>19.003185958553843</v>
+        <v>20.962123088048916</v>
       </c>
       <c r="AU21" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>17.562790172812175</v>
+        <v>24.064352939095485</v>
       </c>
       <c r="AV21" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>23.193222911427981</v>
+        <v>17.538774394389069</v>
       </c>
       <c r="AW21" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>15.034014711065254</v>
+        <v>23.159648921225561</v>
       </c>
     </row>
   </sheetData>
